--- a/card_data/B/war-games.xlsx
+++ b/card_data/B/war-games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alyssa/Documents/GitHub/playing-cards/backend/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryaanahmed\dev\french-playing-cards\card_data\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A85A1FD-6D30-2243-B45D-DE51246A6B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E85AB4C-F7BC-47CB-9B65-0D18A9369552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18700" windowHeight="16460" xr2:uid="{7F5CDC5C-C3A2-A647-988B-30F25FFDF368}"/>
+    <workbookView xWindow="0" yWindow="503" windowWidth="18698" windowHeight="16463" xr2:uid="{7F5CDC5C-C3A2-A647-988B-30F25FFDF368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -532,15 +523,15 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -613,7 +604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -648,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -683,7 +674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -718,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -753,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -788,7 +779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -823,7 +814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -858,7 +849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -893,7 +884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -904,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -928,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -963,7 +954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>35</v>
       </c>
